--- a/biology/Botanique/Robert_Gordon_Wasson/Robert_Gordon_Wasson.xlsx
+++ b/biology/Botanique/Robert_Gordon_Wasson/Robert_Gordon_Wasson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Robert Gordon Wasson (22 septembre 1898 - 23 décembre 1986) est un banquier par ailleurs chercheur amateur et auteur. Ses recherches indépendantes sont une contribution significative pour l'ethnobotanique, l'ethnomycologie, la botanique et l'anthropologie.
 Ses premières études datent de son voyage de noces en 1927 dans les montagnes Catskill avec son épouse Valentina Pavlovna Guercken (1901–1958), pédiatre. Surpris par la différence des attitudes culturelles envers le champignon en Russie et aux États-Unis, le couple commence ses recherches et  effectue des expéditions au Mexique afin d'étudier l'utilisation religieuse des champignons. Ils deviennent ainsi en 1955 les premiers Occidentaux à avoir participé au rituel mazatèque du champignon sacré.
